--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value354.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value354.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8801345342742192</v>
+        <v>0.8937149047851562</v>
       </c>
       <c r="B1">
-        <v>1.498576414788982</v>
+        <v>2.698715448379517</v>
       </c>
       <c r="C1">
-        <v>3.334152330940305</v>
+        <v>4.561539173126221</v>
       </c>
       <c r="D1">
-        <v>2.913906952797028</v>
+        <v>2.186407804489136</v>
       </c>
       <c r="E1">
-        <v>0.9688119287597871</v>
+        <v>1.289425730705261</v>
       </c>
     </row>
   </sheetData>
